--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -1832,13 +1832,10 @@
     <t>Bitte folgen Sie dem regulären Prozess bei der Kundenabholung. Durch den Scan des Abholcodes des Kunden, sowie des Pakets, wird die Paketabholung automatisch storniert.</t>
   </si>
   <si>
-    <t>Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps:
+    <t xml:space="preserve">Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps:
 1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de eingesehen werden.
 2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.
-Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps:
-1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de eingesehen werden.
-2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.
-Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps: 1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de eingesehen werden. 2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.</t>
+</t>
   </si>
 </sst>
 </file>
@@ -2285,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A88" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D85" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5341,7 +5338,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" ht="281.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>191</v>
       </c>

--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="610">
   <si>
     <t>Tags</t>
   </si>
@@ -1709,9 +1709,6 @@
     <t>If customers do not pickup their parcel within 7 days, the parcel expires. Then you need to request driver pickup. You need to scan parcels for driver pickup. Otherwise the App will block you from other tasks. A delivery driver will arrive at the retail store location to pick up parcels. The driver will provide an AH tracking number (abandoned pick up code), Please hand the corresponding parcels to the driver.</t>
   </si>
   <si>
-    <t>Wie gehe ich vor? Bitte befolgen Sie folgende Schritte in der App hier:</t>
-  </si>
-  <si>
     <t>If a driver arrives, select “Driver pickup” from the home screen. Find the parcels named on the list and hand them to the driver.</t>
   </si>
   <si>
@@ -1742,9 +1739,6 @@
     <t>To support the in-store operation of Amazon Hub Counter, Amazon has a Store Support Line to assist you with Application, Device and Delivery issues.</t>
   </si>
   <si>
-    <t>Unsere Mitarbeiter vom Amazon Support helfen Ihnen mit Rat und Tat zur Seite und unterstützen Sie bei Fragen rund um die Prozesse in der App, Ihres Geräts oder Anlieferungsschwierigkeiten.</t>
-  </si>
-  <si>
     <t>Klicken Sie auf das Fragezeichen „?” auf der Startseite.</t>
   </si>
   <si>
@@ -1832,10 +1826,34 @@
     <t>Bitte folgen Sie dem regulären Prozess bei der Kundenabholung. Durch den Scan des Abholcodes des Kunden, sowie des Pakets, wird die Paketabholung automatisch storniert.</t>
   </si>
   <si>
-    <t xml:space="preserve">Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps:
-1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de eingesehen werden.
-2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.
-</t>
+    <t>The Amazon Hub Counter Service allows your location to offer customers a new way to receive their orders. Here you’ll learn how to use the App, how to get support and how to provide a best-in-class service to your customers.</t>
+  </si>
+  <si>
+    <t>Customers will select your location for pick up at checkout then a driver will deliver those parcels to your location. It is important to scan each parcel in from the driver as soon as possible your scan triggers the customer notification. The customer will have 14 days to pick up the parcel.</t>
+  </si>
+  <si>
+    <t>What do I do once I receive a package? Please test the following steps listed below on the Amazon App:</t>
+  </si>
+  <si>
+    <t>Unsere Mitarbeiter vom Amazon Support stehen Ihnen mit Rat und Tat zur Seite und unterstützen Sie bei Fragen rund um die Prozesse in der App, Ihres Geräts oder Anlieferungsschwierigkeiten.</t>
+  </si>
+  <si>
+    <t>If you did not find adequate support, you can request a service call. Click on “Contact support".</t>
+  </si>
+  <si>
+    <t>Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps: 1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de oder der Amazon App eingesehen werden. 2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.</t>
+  </si>
+  <si>
+    <t>//invis.io/Z2110U41EDUW</t>
+  </si>
+  <si>
+    <t>//invis.io/ZT110U3UU3EJ</t>
+  </si>
+  <si>
+    <t>//invis.io/WN110TY5GK39</t>
+  </si>
+  <si>
+    <t>//invis.io/U91141V86CGD</t>
   </si>
 </sst>
 </file>
@@ -1859,7 +1877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1872,14 +1890,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFEE7FE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1902,25 +1914,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE6E6E6"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE6E6E6"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFE6E6E6"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1931,14 +1930,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2280,28 +2274,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K96"/>
+  <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D85" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A97" sqref="A97:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.8984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="33.09765625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="35.296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2335,8 +2326,14 @@
       <c r="K1" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2370,8 +2367,14 @@
       <c r="K2" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+    </row>
+    <row r="3" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2405,13 +2408,19 @@
       <c r="K3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" ht="265.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>217</v>
+        <v>600</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>217</v>
@@ -2440,8 +2449,14 @@
       <c r="K4" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2475,8 +2490,14 @@
       <c r="K5" s="1" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>477</v>
       </c>
@@ -2510,8 +2531,14 @@
       <c r="K6" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2545,8 +2572,14 @@
       <c r="K7" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2580,8 +2613,14 @@
       <c r="K8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2615,8 +2654,14 @@
       <c r="K9" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>478</v>
       </c>
@@ -2650,8 +2695,14 @@
       <c r="K10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>479</v>
       </c>
@@ -2685,8 +2736,14 @@
       <c r="K11" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>480</v>
       </c>
@@ -2720,8 +2777,14 @@
       <c r="K12" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>222</v>
       </c>
@@ -2755,8 +2818,14 @@
       <c r="K13" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>224</v>
       </c>
@@ -2790,8 +2859,14 @@
       <c r="K14" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>228</v>
       </c>
@@ -2825,8 +2900,14 @@
       <c r="K15" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>231</v>
       </c>
@@ -2860,8 +2941,14 @@
       <c r="K16" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2895,8 +2982,14 @@
       <c r="K17" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -2930,13 +3023,19 @@
       <c r="K18" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" ht="343.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>234</v>
+        <v>601</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>234</v>
@@ -2965,13 +3064,19 @@
       <c r="K19" s="1" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>525</v>
+        <v>602</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>525</v>
@@ -3000,8 +3105,14 @@
       <c r="K20" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3035,8 +3146,14 @@
       <c r="K21" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3070,8 +3187,14 @@
       <c r="K22" s="1" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" ht="328.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
@@ -3105,8 +3228,14 @@
       <c r="K23" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -3140,8 +3269,14 @@
       <c r="K24" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3175,8 +3310,14 @@
       <c r="K25" s="1" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -3210,8 +3351,14 @@
       <c r="K26" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3245,8 +3392,14 @@
       <c r="K27" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" ht="219" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3280,8 +3433,14 @@
       <c r="K28" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3315,8 +3474,14 @@
       <c r="K29" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>242</v>
       </c>
@@ -3350,8 +3515,14 @@
       <c r="K30" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>244</v>
       </c>
@@ -3385,8 +3556,14 @@
       <c r="K31" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>247</v>
       </c>
@@ -3420,8 +3597,14 @@
       <c r="K32" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+    </row>
+    <row r="33" spans="1:17" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>250</v>
       </c>
@@ -3455,8 +3638,14 @@
       <c r="K33" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>251</v>
       </c>
@@ -3490,13 +3679,23 @@
       <c r="K34" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
+      <c r="B35" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>495</v>
+      </c>
       <c r="D35" s="3" t="s">
         <v>495</v>
       </c>
@@ -3509,20 +3708,26 @@
       <c r="G35" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="J35" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H35" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -3556,8 +3761,14 @@
       <c r="K36" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="250.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+    </row>
+    <row r="37" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
@@ -3591,8 +3802,14 @@
       <c r="K37" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+    </row>
+    <row r="38" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
@@ -3626,8 +3843,14 @@
       <c r="K38" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+    </row>
+    <row r="39" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -3661,8 +3884,14 @@
       <c r="K39" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -3696,8 +3925,14 @@
       <c r="K40" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -3731,8 +3966,14 @@
       <c r="K41" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3766,8 +4007,14 @@
       <c r="K42" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -3801,8 +4048,14 @@
       <c r="K43" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+    </row>
+    <row r="44" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -3836,8 +4089,14 @@
       <c r="K44" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+    </row>
+    <row r="45" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>255</v>
       </c>
@@ -3871,8 +4130,14 @@
       <c r="K45" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+    </row>
+    <row r="46" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>256</v>
       </c>
@@ -3906,8 +4171,14 @@
       <c r="K46" s="1" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>258</v>
       </c>
@@ -3941,8 +4212,14 @@
       <c r="K47" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+    </row>
+    <row r="48" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>260</v>
       </c>
@@ -3976,8 +4253,14 @@
       <c r="K48" s="1" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+    </row>
+    <row r="49" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>262</v>
       </c>
@@ -4011,8 +4294,14 @@
       <c r="K49" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>263</v>
       </c>
@@ -4046,8 +4335,14 @@
       <c r="K50" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -4081,8 +4376,14 @@
       <c r="K51" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+    </row>
+    <row r="52" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -4116,8 +4417,14 @@
       <c r="K52" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+    </row>
+    <row r="53" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -4151,8 +4458,14 @@
       <c r="K53" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -4186,8 +4499,14 @@
       <c r="K54" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
@@ -4217,8 +4536,14 @@
       <c r="K55" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -4252,8 +4577,14 @@
       <c r="K56" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" ht="265.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
@@ -4287,8 +4618,14 @@
       <c r="K57" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
@@ -4308,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>561</v>
+        <v>526</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>394</v>
@@ -4322,8 +4659,14 @@
       <c r="K58" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -4357,8 +4700,14 @@
       <c r="K59" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -4392,19 +4741,25 @@
       <c r="K60" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>121</v>
@@ -4419,16 +4774,22 @@
         <v>437</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>338</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>561</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4462,19 +4823,25 @@
       <c r="K62" s="1" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>127</v>
@@ -4483,22 +4850,28 @@
         <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>439</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>340</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>563</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
@@ -4518,7 +4891,7 @@
         <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>440</v>
@@ -4532,19 +4905,25 @@
       <c r="K64" s="1" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>132</v>
@@ -4553,22 +4932,28 @@
         <v>132</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>441</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>343</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>567</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -4602,8 +4987,14 @@
       <c r="K66" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
@@ -4637,8 +5028,14 @@
       <c r="K67" s="3" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -4672,19 +5069,25 @@
       <c r="K68" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="1:17" ht="219" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>138</v>
@@ -4693,7 +5096,7 @@
         <v>138</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>572</v>
+        <v>603</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>444</v>
@@ -4705,10 +5108,16 @@
         <v>347</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>570</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -4728,7 +5137,7 @@
         <v>141</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>445</v>
@@ -4742,19 +5151,25 @@
       <c r="K70" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -4763,22 +5178,28 @@
         <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>446</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>350</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>572</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -4798,7 +5219,7 @@
         <v>146</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>447</v>
@@ -4812,13 +5233,19 @@
       <c r="K72" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>265</v>
+        <v>604</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>265</v>
@@ -4847,8 +5274,14 @@
       <c r="K73" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -4868,7 +5301,7 @@
         <v>150</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>451</v>
@@ -4882,8 +5315,14 @@
       <c r="K74" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
@@ -4917,19 +5356,25 @@
       <c r="K75" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>155</v>
@@ -4938,7 +5383,7 @@
         <v>155</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>452</v>
@@ -4950,10 +5395,16 @@
         <v>356</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>577</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
@@ -4987,19 +5438,25 @@
       <c r="K77" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>160</v>
@@ -5008,33 +5465,39 @@
         <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>457</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>358</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>579</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>162</v>
@@ -5043,7 +5506,7 @@
         <v>162</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>458</v>
@@ -5055,10 +5518,16 @@
         <v>359</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>582</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5092,8 +5561,14 @@
       <c r="K80" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5119,7 +5594,7 @@
         <v>461</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>361</v>
@@ -5127,43 +5602,55 @@
       <c r="K81" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>592</v>
-      </c>
       <c r="K82" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>172</v>
       </c>
@@ -5197,8 +5684,14 @@
       <c r="K83" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="1:17" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
@@ -5218,7 +5711,7 @@
         <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>464</v>
@@ -5232,8 +5725,14 @@
       <c r="K84" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>179</v>
       </c>
@@ -5267,8 +5766,14 @@
       <c r="K85" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
@@ -5302,8 +5807,14 @@
       <c r="K86" s="1" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
@@ -5337,43 +5848,55 @@
       <c r="K87" s="1" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" ht="281.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E88" s="6" t="s">
+      <c r="E88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>602</v>
-      </c>
-      <c r="H88" s="6" t="s">
+      <c r="G88" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="H88" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="I88" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="J88" s="6" t="s">
+      <c r="I88" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="J88" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="K88" s="6" t="s">
+      <c r="K88" s="1" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>194</v>
       </c>
@@ -5407,43 +5930,55 @@
       <c r="K89" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E90" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>592</v>
-      </c>
       <c r="K90" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>199</v>
       </c>
@@ -5477,43 +6012,55 @@
       <c r="K91" s="1" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="4" t="s">
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E92" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>595</v>
-      </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="J92" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="J92" s="4" t="s">
-        <v>592</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>585</v>
+      </c>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>204</v>
       </c>
@@ -5547,19 +6094,25 @@
       <c r="K93" s="1" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="1:17" ht="250.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>209</v>
@@ -5568,7 +6121,7 @@
         <v>209</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>474</v>
@@ -5580,10 +6133,16 @@
         <v>371</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>596</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+    </row>
+    <row r="95" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>210</v>
       </c>
@@ -5603,7 +6162,7 @@
         <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>475</v>
@@ -5617,19 +6176,25 @@
       <c r="K95" s="1" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+    </row>
+    <row r="96" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>214</v>
@@ -5638,7 +6203,7 @@
         <v>214</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>476</v>
@@ -5650,34 +6215,41 @@
         <v>373</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>600</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D35" r:id="rId1" display="http://invis.io/W310O7P5JTXV"/>
     <hyperlink ref="G35" r:id="rId2" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H35" r:id="rId3" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I35" r:id="rId4" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J35" r:id="rId5" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K35" r:id="rId6" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="D55" r:id="rId7" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G55" r:id="rId8" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H55" r:id="rId9" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I55" r:id="rId10" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J55" r:id="rId11" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K55" r:id="rId12" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B67" r:id="rId13" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="C67" r:id="rId14" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="D67" r:id="rId15" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G67" r:id="rId16" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H67" r:id="rId17" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I67" r:id="rId18" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J67" r:id="rId19" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K67" r:id="rId20" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="D55" r:id="rId3" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="G55" r:id="rId4" display="https://invis.io/BG10Z5M4C8K9"/>
+    <hyperlink ref="H55" r:id="rId5" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I55" r:id="rId6" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="J55" r:id="rId7" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="K55" r:id="rId8" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="B67" r:id="rId9" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="C67" r:id="rId10" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="D67" r:id="rId11" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="G67" r:id="rId12" display="https://invis.io/BG10Z5M4C8K9"/>
+    <hyperlink ref="H67" r:id="rId13" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I67" r:id="rId14" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="J67" r:id="rId15" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="K67" r:id="rId16" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="B35:C35" r:id="rId17" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I35" r:id="rId18" display="https://invis.io/Z2110U41EDUW"/>
+    <hyperlink ref="H35" r:id="rId19" display="https://invis.io/ZT110U3UU3EJ"/>
+    <hyperlink ref="J35" r:id="rId20" display="https://invis.io/WN110TY5GK39"/>
+    <hyperlink ref="K35" r:id="rId21" display="https://invis.io/U91141V86CGD"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -677,12 +677,6 @@
     <t>In-Store Support</t>
   </si>
   <si>
-    <t>Your location provides a service from Amazon that allows customers to ship orders to your location and pick them up. Here you'll learn how to use the App, how to get support and how to provide a best-in-class service to your customers.</t>
-  </si>
-  <si>
-    <t>Tu ubicación ofrece un servicio de Amazon que permite a los clientes enviar pedidos a tu ubicación y recogerlos. Aquí aprenderá cómo usar la aplicación, cómo obtener soporte y cómo brindar el mejor servicio de su clase a sus clientes.</t>
-  </si>
-  <si>
     <t>Content overview</t>
   </si>
   <si>
@@ -1157,9 +1151,6 @@
     <t>Qu'est-ce que le service Amazon Counter ?</t>
   </si>
   <si>
-    <t>L'emplacement de votre commerce fournit un service d'Amazon qui permet aux clients d'expédier des commandes dans votre commerce et de les récupérer. Vous apprendrez ici comment utiliser l'application, comment obtenir de l'aide et comment fournir un service de qualité à vos clients.</t>
-  </si>
-  <si>
     <t>Résumé de la formation</t>
   </si>
   <si>
@@ -1826,9 +1817,6 @@
     <t>Bitte folgen Sie dem regulären Prozess bei der Kundenabholung. Durch den Scan des Abholcodes des Kunden, sowie des Pakets, wird die Paketabholung automatisch storniert.</t>
   </si>
   <si>
-    <t>The Amazon Hub Counter Service allows your location to offer customers a new way to receive their orders. Here you’ll learn how to use the App, how to get support and how to provide a best-in-class service to your customers.</t>
-  </si>
-  <si>
     <t>Customers will select your location for pick up at checkout then a driver will deliver those parcels to your location. It is important to scan each parcel in from the driver as soon as possible your scan triggers the customer notification. The customer will have 14 days to pick up the parcel.</t>
   </si>
   <si>
@@ -1854,6 +1842,18 @@
   </si>
   <si>
     <t>//invis.io/U91141V86CGD</t>
+  </si>
+  <si>
+    <t>Your location provides a service from Amazon that allows customers to ship orders to your location and pick them up. Here you'll learn how to use the App, how to get support and how to provide a best-in-class service to your customers. This platform in also valid for web app users.</t>
+  </si>
+  <si>
+    <t>The Amazon Hub Counter Service allows your location to offer customers a new way to receive their orders. Here you’ll learn how to use the App, how to get support and how to provide a best-in-class service to your customers. This platform in also valid for web app users.</t>
+  </si>
+  <si>
+    <t>Tu ubicación ofrece un servicio de Amazon que permite a los clientes enviar pedidos a tu ubicación y recogerlos. Aquí aprenderá cómo usar la aplicación, cómo obtener soporte y cómo brindar el mejor servicio de su clase a sus clientes. Esta plataforma es válida tambíen para web app.</t>
+  </si>
+  <si>
+    <t>L'emplacement de votre commerce fournit un service d'Amazon qui permet aux clients d'expédier des commandes dans votre commerce et de les récupérer. Vous apprendrez ici comment utiliser l'application, comment obtenir de l'aide et comment fournir un service de qualité à vos clients. Cette plateforme est également valable pour les utilisateurs d'applications web.</t>
   </si>
 </sst>
 </file>
@@ -2277,8 +2277,8 @@
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A97" sqref="A97:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2315,16 +2315,16 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>267</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>269</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
@@ -2356,13 +2356,13 @@
         <v>216</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>216</v>
@@ -2397,13 +2397,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -2415,39 +2415,39 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="265.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>217</v>
+        <v>606</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>217</v>
+        <v>606</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>218</v>
+        <v>608</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>218</v>
+        <v>608</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>377</v>
+        <v>609</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2461,13 +2461,13 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -2476,19 +2476,19 @@
         <v>11</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="6" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -2517,16 +2517,16 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>12</v>
@@ -2543,13 +2543,13 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>16</v>
@@ -2561,16 +2561,16 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
@@ -2602,13 +2602,13 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>19</v>
@@ -2643,13 +2643,13 @@
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>23</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="10" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -2684,13 +2684,13 @@
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>26</v>
@@ -2704,7 +2704,7 @@
     </row>
     <row r="11" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2725,13 +2725,13 @@
         <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K11" s="1" t="s">
         <v>29</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -2766,13 +2766,13 @@
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>32</v>
@@ -2786,37 +2786,37 @@
     </row>
     <row r="13" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2827,37 +2827,37 @@
     </row>
     <row r="14" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="F14" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="H14" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -2868,37 +2868,37 @@
     </row>
     <row r="15" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>522</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2909,37 +2909,37 @@
     </row>
     <row r="16" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>523</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2968,16 +2968,16 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>12</v>
@@ -3012,13 +3012,13 @@
         <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>15</v>
@@ -3030,18 +3030,18 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="343.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="328.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>37</v>
@@ -3050,19 +3050,19 @@
         <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3076,13 +3076,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
@@ -3091,19 +3091,19 @@
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3117,13 +3117,13 @@
         <v>40</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>41</v>
@@ -3132,19 +3132,19 @@
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
@@ -3158,34 +3158,34 @@
         <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -3194,39 +3194,39 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="328.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3235,7 +3235,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -3255,16 +3255,16 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>45</v>
@@ -3281,34 +3281,34 @@
         <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -3337,16 +3337,16 @@
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>49</v>
@@ -3381,13 +3381,13 @@
         <v>54</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>52</v>
@@ -3422,16 +3422,16 @@
         <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3460,16 +3460,16 @@
         <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>60</v>
@@ -3483,37 +3483,37 @@
     </row>
     <row r="30" spans="1:17" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3524,37 +3524,37 @@
     </row>
     <row r="31" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>537</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="H31" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3565,37 +3565,37 @@
     </row>
     <row r="32" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>62</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3606,16 +3606,16 @@
     </row>
     <row r="33" spans="1:17" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
@@ -3624,19 +3624,19 @@
         <v>63</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3647,37 +3647,37 @@
     </row>
     <row r="34" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3691,34 +3691,34 @@
         <v>64</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3750,13 +3750,13 @@
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>66</v>
@@ -3773,34 +3773,34 @@
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>547</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>547</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>548</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>549</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3814,13 +3814,13 @@
         <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -3829,19 +3829,19 @@
         <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3873,13 +3873,13 @@
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>70</v>
@@ -3911,16 +3911,16 @@
         <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>74</v>
@@ -3955,13 +3955,13 @@
         <v>79</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>77</v>
@@ -3973,7 +3973,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,13 +3996,13 @@
         <v>83</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>81</v>
@@ -4034,16 +4034,16 @@
         <v>86</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>85</v>
@@ -4075,16 +4075,16 @@
         <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>60</v>
@@ -4098,7 +4098,7 @@
     </row>
     <row r="45" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>88</v>
@@ -4119,13 +4119,13 @@
         <v>72</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>88</v>
@@ -4139,16 +4139,16 @@
     </row>
     <row r="46" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>89</v>
@@ -4157,19 +4157,19 @@
         <v>89</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -4180,16 +4180,16 @@
     </row>
     <row r="47" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>90</v>
@@ -4198,19 +4198,19 @@
         <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -4221,16 +4221,16 @@
     </row>
     <row r="48" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>91</v>
@@ -4239,19 +4239,19 @@
         <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K48" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="49" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>92</v>
@@ -4280,16 +4280,16 @@
         <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>92</v>
@@ -4303,37 +4303,37 @@
     </row>
     <row r="50" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4342,7 +4342,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -4362,16 +4362,16 @@
         <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>95</v>
@@ -4406,13 +4406,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>98</v>
@@ -4447,13 +4447,13 @@
         <v>104</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>102</v>
@@ -4485,16 +4485,16 @@
         <v>107</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>106</v>
@@ -4513,28 +4513,28 @@
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4566,13 +4566,13 @@
         <v>25</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>109</v>
@@ -4584,39 +4584,39 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="390.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4630,13 +4630,13 @@
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>39</v>
@@ -4645,19 +4645,19 @@
         <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4689,13 +4689,13 @@
         <v>116</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>114</v>
@@ -4727,16 +4727,16 @@
         <v>119</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>118</v>
@@ -4753,13 +4753,13 @@
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>121</v>
@@ -4768,19 +4768,19 @@
         <v>121</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4812,13 +4812,13 @@
         <v>125</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>123</v>
@@ -4830,18 +4830,18 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>127</v>
@@ -4850,19 +4850,19 @@
         <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4891,16 +4891,16 @@
         <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>129</v>
@@ -4917,13 +4917,13 @@
         <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>132</v>
@@ -4932,19 +4932,19 @@
         <v>132</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4973,16 +4973,16 @@
         <v>135</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>134</v>
@@ -4999,34 +4999,34 @@
         <v>64</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="J67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -5058,13 +5058,13 @@
         <v>28</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>26</v>
@@ -5076,18 +5076,18 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="219" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>138</v>
@@ -5096,19 +5096,19 @@
         <v>138</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5137,16 +5137,16 @@
         <v>141</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>140</v>
@@ -5163,13 +5163,13 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -5178,19 +5178,19 @@
         <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -5219,16 +5219,16 @@
         <v>146</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>145</v>
@@ -5245,34 +5245,34 @@
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
@@ -5281,7 +5281,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -5301,16 +5301,16 @@
         <v>150</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>149</v>
@@ -5345,13 +5345,13 @@
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>152</v>
@@ -5368,13 +5368,13 @@
         <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>155</v>
@@ -5383,19 +5383,19 @@
         <v>155</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -5424,16 +5424,16 @@
         <v>158</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>157</v>
@@ -5450,13 +5450,13 @@
         <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>160</v>
@@ -5465,19 +5465,19 @@
         <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -5491,13 +5491,13 @@
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>162</v>
@@ -5506,19 +5506,19 @@
         <v>162</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -5550,13 +5550,13 @@
         <v>166</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>164</v>
@@ -5591,13 +5591,13 @@
         <v>170</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>168</v>
@@ -5609,39 +5609,39 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="H82" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>589</v>
-      </c>
-      <c r="J82" s="1" t="s">
-        <v>590</v>
-      </c>
       <c r="K82" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -5673,13 +5673,13 @@
         <v>175</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>173</v>
@@ -5711,16 +5711,16 @@
         <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>177</v>
@@ -5755,13 +5755,13 @@
         <v>182</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>180</v>
@@ -5796,13 +5796,13 @@
         <v>186</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>184</v>
@@ -5837,13 +5837,13 @@
         <v>190</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>188</v>
@@ -5875,16 +5875,16 @@
         <v>193</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>192</v>
@@ -5919,13 +5919,13 @@
         <v>197</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>195</v>
@@ -5942,34 +5942,34 @@
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H90" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E90" s="1" t="s">
+      <c r="I90" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="J90" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -6001,13 +6001,13 @@
         <v>202</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>200</v>
@@ -6024,34 +6024,34 @@
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="H92" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>585</v>
-      </c>
-      <c r="E92" s="1" t="s">
+      <c r="I92" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>593</v>
-      </c>
-      <c r="H92" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>589</v>
-      </c>
       <c r="J92" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -6083,13 +6083,13 @@
         <v>207</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>205</v>
@@ -6106,13 +6106,13 @@
         <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>209</v>
@@ -6121,19 +6121,19 @@
         <v>209</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -6162,16 +6162,16 @@
         <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>211</v>
@@ -6188,13 +6188,13 @@
         <v>213</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>214</v>
@@ -6203,19 +6203,19 @@
         <v>214</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>

--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -1574,9 +1574,6 @@
     <t>Ihr Standort bietet einen Amazon Service an, bei dem Kunden Bestellungen an Ihrem Standort abholen können. Lernen Sie hier wie Sie die App bedienen und Hilfe vom Amazon Support erhalten können.</t>
   </si>
   <si>
-    <t>Your location provides a service from Amazon that allows customers to ship orders to your location and pick them up. Here, you'll learn how to use the App, how to get support and how to provide a best-in-class service to your customers.</t>
-  </si>
-  <si>
     <t>Key Takeaways</t>
   </si>
   <si>
@@ -1854,6 +1851,9 @@
   </si>
   <si>
     <t>L'emplacement de votre commerce fournit un service d'Amazon qui permet aux clients d'expédier des commandes dans votre commerce et de les récupérer. Vous apprendrez ici comment utiliser l'application, comment obtenir de l'aide et comment fournir un service de qualité à vos clients. Cette plateforme est également valable pour les utilisateurs d'applications web.</t>
+  </si>
+  <si>
+    <t>Your location provides a service from Amazon that allows customers to ship orders to your location and pick them up. Here, you'll learn how to use the App, how to get support and how to provide a best-in-class service to your customers. This platform in also valid for web app users.</t>
   </si>
 </sst>
 </file>
@@ -2276,9 +2276,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2420,25 +2420,25 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>608</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>515</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>481</v>
@@ -2447,7 +2447,7 @@
         <v>269</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>516</v>
+        <v>609</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2789,13 +2789,13 @@
         <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>221</v>
@@ -2804,7 +2804,7 @@
         <v>221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>386</v>
@@ -2816,7 +2816,7 @@
         <v>285</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2871,13 +2871,13 @@
         <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>227</v>
@@ -2898,7 +2898,7 @@
         <v>289</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2912,13 +2912,13 @@
         <v>229</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>230</v>
@@ -2939,7 +2939,7 @@
         <v>291</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -3035,7 +3035,7 @@
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>232</v>
@@ -3050,7 +3050,7 @@
         <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>390</v>
@@ -3076,13 +3076,13 @@
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
@@ -3091,7 +3091,7 @@
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>391</v>
@@ -3103,7 +3103,7 @@
         <v>295</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3132,7 +3132,7 @@
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>392</v>
@@ -3199,13 +3199,13 @@
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>236</v>
@@ -3226,7 +3226,7 @@
         <v>299</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3255,7 +3255,7 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>396</v>
@@ -3296,7 +3296,7 @@
         <v>239</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>397</v>
@@ -3337,7 +3337,7 @@
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>398</v>
@@ -3431,7 +3431,7 @@
         <v>304</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3460,7 +3460,7 @@
         <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>402</v>
@@ -3486,13 +3486,13 @@
         <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>241</v>
@@ -3501,19 +3501,19 @@
         <v>241</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>403</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J30" s="1" t="s">
         <v>306</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3527,13 +3527,13 @@
         <v>242</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>243</v>
@@ -3554,7 +3554,7 @@
         <v>307</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3568,13 +3568,13 @@
         <v>245</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>535</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>536</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>246</v>
@@ -3589,13 +3589,13 @@
         <v>405</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>308</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
@@ -3609,13 +3609,13 @@
         <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
@@ -3624,7 +3624,7 @@
         <v>63</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>406</v>
@@ -3636,7 +3636,7 @@
         <v>309</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3650,13 +3650,13 @@
         <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>250</v>
@@ -3665,19 +3665,19 @@
         <v>250</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>407</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>310</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3709,16 +3709,16 @@
         <v>494</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="I35" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>605</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3773,13 +3773,13 @@
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>252</v>
@@ -3788,19 +3788,19 @@
         <v>252</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>408</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>312</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3814,13 +3814,13 @@
         <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -3829,7 +3829,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>391</v>
@@ -3841,7 +3841,7 @@
         <v>313</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3911,7 +3911,7 @@
         <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>410</v>
@@ -4075,7 +4075,7 @@
         <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>402</v>
@@ -4157,7 +4157,7 @@
         <v>89</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>416</v>
@@ -4198,7 +4198,7 @@
         <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>417</v>
@@ -4280,7 +4280,7 @@
         <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>419</v>
@@ -4306,13 +4306,13 @@
         <v>261</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>250</v>
@@ -4327,13 +4327,13 @@
         <v>407</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>310</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4362,7 +4362,7 @@
         <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>420</v>
@@ -4485,7 +4485,7 @@
         <v>107</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>424</v>
@@ -4589,13 +4589,13 @@
         <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>262</v>
@@ -4604,7 +4604,7 @@
         <v>262</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>427</v>
@@ -4616,7 +4616,7 @@
         <v>333</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4630,13 +4630,13 @@
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>39</v>
@@ -4645,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>391</v>
@@ -4657,7 +4657,7 @@
         <v>295</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4753,13 +4753,13 @@
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>121</v>
@@ -4774,13 +4774,13 @@
         <v>434</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>336</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4835,13 +4835,13 @@
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>127</v>
@@ -4850,19 +4850,19 @@
         <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>436</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J63" s="1" t="s">
         <v>338</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4891,7 +4891,7 @@
         <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>437</v>
@@ -4917,13 +4917,13 @@
         <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>132</v>
@@ -4932,19 +4932,19 @@
         <v>132</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>438</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J65" s="1" t="s">
         <v>341</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -5081,13 +5081,13 @@
         <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>138</v>
@@ -5096,7 +5096,7 @@
         <v>138</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>441</v>
@@ -5108,7 +5108,7 @@
         <v>345</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5137,7 +5137,7 @@
         <v>141</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>442</v>
@@ -5163,13 +5163,13 @@
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -5178,19 +5178,19 @@
         <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>443</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>348</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -5219,7 +5219,7 @@
         <v>146</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>444</v>
@@ -5245,7 +5245,7 @@
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>263</v>
@@ -5301,7 +5301,7 @@
         <v>150</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>448</v>
@@ -5368,13 +5368,13 @@
         <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>155</v>
@@ -5383,7 +5383,7 @@
         <v>155</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>449</v>
@@ -5395,7 +5395,7 @@
         <v>354</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -5450,13 +5450,13 @@
         <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>160</v>
@@ -5465,19 +5465,19 @@
         <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>454</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J78" s="1" t="s">
         <v>356</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -5491,13 +5491,13 @@
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>162</v>
@@ -5506,7 +5506,7 @@
         <v>162</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>455</v>
@@ -5518,7 +5518,7 @@
         <v>357</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -5594,7 +5594,7 @@
         <v>458</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="J81" s="1" t="s">
         <v>359</v>
@@ -5614,34 +5614,34 @@
         <v>171</v>
       </c>
       <c r="B82" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="F82" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E82" s="1" t="s">
+      <c r="G82" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="J82" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J82" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="K82" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -5711,7 +5711,7 @@
         <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>461</v>
@@ -5875,13 +5875,13 @@
         <v>193</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>467</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>365</v>
@@ -5942,34 +5942,34 @@
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E90" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="F90" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="G90" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H90" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I90" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="J90" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J90" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="K90" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -6024,34 +6024,34 @@
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="F92" s="1" t="s">
         <v>582</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>582</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>583</v>
-      </c>
-      <c r="F92" s="1" t="s">
-        <v>583</v>
-      </c>
       <c r="G92" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H92" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="I92" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="J92" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="J92" s="1" t="s">
-        <v>587</v>
-      </c>
       <c r="K92" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -6106,13 +6106,13 @@
         <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>209</v>
@@ -6121,7 +6121,7 @@
         <v>209</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>471</v>
@@ -6133,7 +6133,7 @@
         <v>369</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -6162,7 +6162,7 @@
         <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>472</v>
@@ -6188,13 +6188,13 @@
         <v>213</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>214</v>
@@ -6203,7 +6203,7 @@
         <v>214</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>473</v>
@@ -6215,7 +6215,7 @@
         <v>371</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>

--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="8088" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8085" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="610">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="612">
   <si>
     <t>Tags</t>
   </si>
@@ -902,9 +902,6 @@
     <t>Cihazınızın şarj edilmiş, Wi-Fi'ye bağlı ve her zaman ulaşabileceğiniz yerde olduğundan emin olun.</t>
   </si>
   <si>
-    <t>Sizi teslim alma yeri olarak seçen Amazon müşterileri için paket teslim etmek üzere mağazanıza bir kurye gelecek. Kurye paketi size verdiğinde, her bir paket etiketini taramanız gerekir. Lütfen teslim edilen paketleri en kısa sürede tarayın. Taramanız müşteri bildirimini tetikler. Müşterinin paketi teslim almak için 14 günü vardır.</t>
-  </si>
-  <si>
     <t>A driver will arrive at your store to deliver parcels for Amazon customers who choose you as a pickup location. When the driver hands you the parcel, you need to scan each parcel label. Please scan delivered parcels as soon as possible. Your scan triggers the customer notification. The customer has 7 days to pickup the parcel.</t>
   </si>
   <si>
@@ -1025,9 +1022,6 @@
     <t>"Bulamıyor" veya "reddediyor" u seçebilirsiniz.</t>
   </si>
   <si>
-    <t>Müşteriler, paketlerini 14 gün içinde teslim almazlarsa, paketin süresi dolar. O zaman kuryenin teslim alınmasını istemeniz gerekir. Kuryenin teslim alması için paketleri taramanız gerekir. Aksi takdirde, Uygulama sizi diğer görevlerden alıkoyacaktır. Teslimat şoförü, kargoları almak için mağazanıza varacaktır. Kurye vardığında kuryenin size ileteceği R ile başlayan kodu Kuryeye İade menüsü üzerinden girmeniz ve paketleri sürücüye vermeniz yeterlidir.</t>
-  </si>
-  <si>
     <t>Paketlerin süresi dolarsa, ana ekranda bir bildirim görünecektir.</t>
   </si>
   <si>
@@ -1040,9 +1034,6 @@
     <t>Ya paket eksikse?</t>
   </si>
   <si>
-    <t>Süresi dolan paketleri (müşterinin 14 gün içerisinde teslim almadığı paketler) taramak için hatırlatıcıya dokunun.</t>
-  </si>
-  <si>
     <t>Seleziona il pacco mancante dalla lista sotto</t>
   </si>
   <si>
@@ -1133,9 +1124,6 @@
     <t>Kuryenin birkaç gün teslim almasını bekleyen kargolarımın süresi dolduysa ne olur?</t>
   </si>
   <si>
-    <t>Paketler 14 gün sonra sona erecek, lütfen kuryenin teslim alması için birkaç gün bekleyin. Lütfen Amazon destek ile iletişime geçin, "?" (Sağ üstte) üzerine tıklayarak, bir paket 3 gün içinde teslim alınmazsa yardım sayfasının sonunda aşağı kaydırın</t>
-  </si>
-  <si>
     <t>Kuryenin teslim almasını bekleyen kargolarımın süresi dolduysa ancak müşteri paketi teslim almaya gelirse ne olur?</t>
   </si>
   <si>
@@ -1196,9 +1184,6 @@
     <t>Assurez-vous que votre appareil est chargé, connecté au Wi-Fi et toujours à votre portée.</t>
   </si>
   <si>
-    <t>Un livreur se rendra dans votre magasin pour livrer les colis des clients Amazon qui vous ont choisi comme lieu de retrait. Lorsque le livreur vous remet le colis, vous devez scanner les étiquettes de chaque colis. Veuillez scanner les colis livrés dès que possible. Votre scan envoie une notification au client. Le client dispose de 14 jours pour retirer le colis.</t>
-  </si>
-  <si>
     <t>Que dois-je faire ? Veuillez suivre les étapes suivantes sur l'application Amazon ci-dessous :</t>
   </si>
   <si>
@@ -1241,9 +1226,6 @@
     <t>Cliquez maintenant sur "Scan impossible" et entrez le numéro de suivi du colis.</t>
   </si>
   <si>
-    <t>Le numéro de suivi commence généralement par QC et contient 12 chiffres au total. Cliquez sur la case vide et commencez à taper le numéro de suivi.</t>
-  </si>
-  <si>
     <t>Reprenez une troisième fois le processus de réception des colis et continuez jusqu'à ce que le cadre de numérisation apparaisse. Veuillez alors cliquer sur l'icône ressemblant à un clavier. Il s'agit d'un moyen alternatif de saisir manuellement l'identifiant de suivi.</t>
   </si>
   <si>
@@ -1307,15 +1289,9 @@
     <t>Retrait des colis par le livreur</t>
   </si>
   <si>
-    <t>Si les clients ne récupèrent pas leur colis dans les 14 jours, le colis expire. Vous devez alors demander l'enlèvement par un livreur. Vous devez scanner les colis pour que le livreur vienne les chercher. Autrement, l'application vous empêchera d'effectuer d'autres tâches. Un livreur se rendra dans votre magasin pour récupérer les colis. Vous n'avez pas besoin de scanner les colis à l'arrivée du livreur - il suffit de les lui remettre.</t>
-  </si>
-  <si>
     <t>Si les colis arrivent à expiration, une notification apparaît sur l'écran principal.</t>
   </si>
   <si>
-    <t>Quando i pacchi superano il periodo massimo di giacenza di 14 giorni, viene visualizzata una notifica</t>
-  </si>
-  <si>
     <t>Scannen Sie die Pakete ein, indem Sie jedes Paketetikett in den Scanrahmen platzieren. Wenn Sie alle Pakete eingescannt haben, erscheint der Bildschirm „Fertig“. In 1-2 Tagen wird das Paket abgeholt.</t>
   </si>
   <si>
@@ -1400,9 +1376,6 @@
     <t>Domande ricorrenti</t>
   </si>
   <si>
-    <t>J'ai oublié mo,n identifiant et mon mot de passe, que dois-je faire ?</t>
-  </si>
-  <si>
     <t>Que faire si le transporteur tente de livrer un colis qui semble endommagé ?</t>
   </si>
   <si>
@@ -1439,9 +1412,6 @@
     <t>Que faire si j'ai des colis arrivés à expiration qui attendent l'enlèvement par le transporteur depuis plusieurs jours ?</t>
   </si>
   <si>
-    <t>Les colis expirent au bout de 14 jours. Veuillez prévoir quelques jours pour que le transporteur vienne les chercher. Veuillez contacter le service d'assistance d'Amazon en cliquant sur le " ?" (en haut à droite), en faisant défiler la page vers le bas, si un colis n'est pas enlevé dans les 3 jours.</t>
-  </si>
-  <si>
     <t>Que se passe-t-il si j'ai des colis arrivés à expiration en attente d'enlèvement par le transporteur, mais que le client arrive pour enlever le colis ?</t>
   </si>
   <si>
@@ -1472,9 +1442,6 @@
     <t>Il tuo punto vendita fornisce il servizio di ritiro degli ordini Amazon. Imparerai come usare la App, ricevere supporto e fornire un servizio best-in-class ai tuoi clienti</t>
   </si>
   <si>
-    <t>Un corriere arriverà al tuo punto vendita per consegnare i pacchi dei clienti Amazon che lo hanno selezionato come punto di ritiro. Quando il corriere ti consegna i pacchi, devi scansionarne le etichette. Cerca di farlo il piu' presto possibile, in modo da inviare le notifiche al cliente per il ritiro. Il cliente ha 14 giorni di tempo per il ritiro</t>
-  </si>
-  <si>
     <t>Esegui la scansione dei pacchi immediatamente dopo averli ricevuti. Seleziona "Scansiona tutti i pacchi ricevuti dal corriere"</t>
   </si>
   <si>
@@ -1523,9 +1490,6 @@
     <t>Che fare se il pacco non si trova o se il cliente non vuole ritirarlo?</t>
   </si>
   <si>
-    <t>Se i clienti non ritirano i pacchi entro 14 giorni, i pacchi sono considerati scaduti o abbandonati. Quando ti viene richiesta la scansione dei pacchi abbandonati, devi eseguirla, altrimenti la App non ti permetterà altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi scaduti entro pochi giorni. Quando arriva il corriere, non devi fare nuovamente la scansione dei pacchi, devi solo consegnarglieli</t>
-  </si>
-  <si>
     <t>Cosa fare se mancano dei pacchi?</t>
   </si>
   <si>
@@ -1556,9 +1520,6 @@
     <t>Che fare se ci sono pacchi scaduti in attesa del corriere per diversi giorni?</t>
   </si>
   <si>
-    <t>I pacchi scadono dopo 14 giorni. Considera inoltre un paio di giorni necessari al ritiro da parte del corriere. Contatta il supporto Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto se i pacchi non sono ritirati entro 3 giorni</t>
-  </si>
-  <si>
     <t>Che fare se ho dei pacchi scaduti in attesa del ritiro del corriere, ma il cliente arriva per ritirarli?</t>
   </si>
   <si>
@@ -1586,9 +1547,6 @@
     <t>Make sure your device is charged, connected to Wi-Fi and always in your reach.</t>
   </si>
   <si>
-    <t>Ein Fahrer liefert Pakete von Amazon-Kunden und übergibt Ihnen alle Pakete. Scannen Sie bitte das Paketetikett mit der Amazon-App ein. Bitte scannen Sie alle Pakete so schnell wie möglich. Der Scan löst die Benachrichtung an Kunden zur Abholung aus. Kunden haben nun 14 Tage Zeit, um die Pakete abzuholen.</t>
-  </si>
-  <si>
     <t>What do I do? Please test the following steps on the Amazon app below:</t>
   </si>
   <si>
@@ -1691,9 +1649,6 @@
     <t>If customers do not pickup their parcel within 14 days, the parcel expires. Then you need to request driver pickup. You need to scan parcels for driver pickup. Otherwise the App will block you from other tasks.A delivery driver will arrive at the retail store location to pick up parcels. You do not need to scan upon driver arrival - just hand the parcels to the driver.</t>
   </si>
   <si>
-    <t>Wenn Kunden Pakete nicht innerhalb der Frist von 14 Tagen abholen, werden die Pakete als abgelaufen markiert. Klicken Sie bitte auf die entsprechende Meldung auf der Startseite, um Pakete für eine Abholung anzumelden. Bitte scannen Sie alle Pakete nach der Meldung innerhalb von 2 Stunden ein. Die App wird andernfalls alle Funktionalitäten bis zum Scan blockieren. Kommt ein Fahrer zur Abholung, müssen Sie lediglich die Pakete aushändigen.</t>
-  </si>
-  <si>
     <t>If customers do not pickup their parcel within 7 days, the parcel expires. Then you need to request driver pickup. You need to scan parcels for driver pickup. Otherwise the App will block you from other tasks. A delivery driver will arrive at the retail store location to pick up parcels. The driver will provide an AH tracking number (abandoned pick up code), Please hand the corresponding parcels to the driver.</t>
   </si>
   <si>
@@ -1778,9 +1733,6 @@
     <t>Falls Sie einen Ansprechpartner für das Programm haben, kontaktieren Sie bitten diesen für den Benutzernamen. Sie können dann auf der Login-Seite das Passwort zurücksetzen.</t>
   </si>
   <si>
-    <t>Veuillez contacter votre personne de contact Amazon Hub Counter pour le programme.</t>
-  </si>
-  <si>
     <t>Si prega di contattare la persona di contatto di Amazon Hub Counter per il programma.</t>
   </si>
   <si>
@@ -1805,9 +1757,6 @@
     <t>Parcels will expire after 7 days, please allow a couple days for the driver to pick up. Please contact Amazon support, by clicking on the ‘?’ (upper right), scroll down at the end of the help page if a parcel is not picked up within 3 days</t>
   </si>
   <si>
-    <t>Was ist zu tun, wenn ich eine Paketabholung nach 14 Tagen beantragt habe, aber der Kunde in der Zwischenzeit das Paket abholt?</t>
-  </si>
-  <si>
     <t>Please follow the regular process for customer pickup as outlined above.</t>
   </si>
   <si>
@@ -1829,15 +1778,6 @@
     <t>Wenn ein Kunde seine Abholbenachrichtigung nicht finden kann, geben Sie ihm die folgenden Tipps: 1. Überprüfen Sie Ihre E-Mails: Der Abholcode findet sich in einer E-Mail mit dem Absender "Abholbenachrichtigungen" und kann auf Amazon.de oder der Amazon App eingesehen werden. 2. Kontaktieren Sie das Support-Team: Sagen Sie dem Kunden, er solle sich über "Kontaktieren Sie uns" auf der Amazon-Website oder in der mobilen App an den Kundenservice wenden. Ein Mitarbeiter vom Amazon-Kundenservice kann den Abholcode erneut versenden, wenn der Kunde sein Konto verifizieren kann.</t>
   </si>
   <si>
-    <t>//invis.io/Z2110U41EDUW</t>
-  </si>
-  <si>
-    <t>//invis.io/ZT110U3UU3EJ</t>
-  </si>
-  <si>
-    <t>//invis.io/WN110TY5GK39</t>
-  </si>
-  <si>
     <t>//invis.io/U91141V86CGD</t>
   </si>
   <si>
@@ -1854,6 +1794,72 @@
   </si>
   <si>
     <t>Your location provides a service from Amazon that allows customers to ship orders to your location and pick them up. Here, you'll learn how to use the App, how to get support and how to provide a best-in-class service to your customers. This platform in also valid for web app users.</t>
+  </si>
+  <si>
+    <t>Un conductor llegará a su tienda para entregar los paquetes a los clientes de Amazon que lo elijan como lugar de recogida. Cuando el conductor le entrega el paquete, debe escanear la etiqueta de cada paquete. Esto enviará una notificación al cliente de que el paquete está listo para ser recogido. El cliente dispone de 7 días para recoger el paquete.</t>
+  </si>
+  <si>
+    <t>Ein Fahrer liefert Pakete von Amazon-Kunden und übergibt Ihnen alle Pakete. Scannen Sie bitte das Paketetikett mit der Amazon-App ein. Bitte scannen Sie alle Pakete so schnell wie möglich. Der Scan löst die Benachrichtung an Kunden zur Abholung aus. Kunden haben nun 7 Tage Zeit, um die Pakete abzuholen.</t>
+  </si>
+  <si>
+    <t>Un livreur se rendra dans votre magasin pour livrer les colis des clients Amazon qui vous ont choisi comme lieu de retrait. Lorsque le livreur vous remet le colis, vous devez scanner les étiquettes de chaque colis. Veuillez scanner les colis livrés dès que possible. Votre scan envoie une notification au client. Le client dispose de 7 jours pour retirer le colis.</t>
+  </si>
+  <si>
+    <t>Un corriere arriverà al tuo punto vendita per consegnare i pacchi dei clienti Amazon che lo hanno selezionato come punto di ritiro. Quando il corriere ti consegna i pacchi, devi scansionarne le etichette. Cerca di farlo il piu' presto possibile, in modo da inviare le notifiche al cliente per il ritiro. Il cliente ha 7 giorni di tempo per il ritiro</t>
+  </si>
+  <si>
+    <t>Sizi teslim alma yeri olarak seçen Amazon müşterileri için paket teslim etmek üzere mağazanıza bir kurye gelecek. Kurye paketi size verdiğinde, her bir paket etiketini taramanız gerekir. Lütfen teslim edilen paketleri en kısa sürede tarayın. Taramanız müşteri bildirimini tetikler. Müşterinin paketi teslim almak için 7 günü vardır.</t>
+  </si>
+  <si>
+    <t>Le numéro de suivi commence généralement ou bien par 37 (ex: 371000006285C0355) et contient 17 chiffres ou par CA/CC (ex:CC0207498370, CA0025027566) et contient 12 chiffres . Cliquez sur la case vide et commencez à taper le numéro de suivi.</t>
+  </si>
+  <si>
+    <t>If customers do not pickup their parcel within 7 days, the parcel expires. Then you need to request driver pickup. You need to scan parcels for driver pickup. Otherwise the App will block you from other tasks.A delivery driver will arrive at the retail store location to pick up parcels. You do not need to scan upon driver arrival - just hand the parcels to the driver.</t>
+  </si>
+  <si>
+    <t>Si los clientes no recogen su paquete dentro de los 7 días, el paquete caduca. Entonces debe solicitar que el conductor lo recoja. Necesita escanear paquetes para que el conductor los recoja. De lo contrario, la aplicación lo bloqueará de otras tareas. Un conductor de entrega llegará a la ubicación de la tienda minorista para recoger los paquetes. No necesita escanear a la llegada del conductor, solo entregue los paquetes al conductor.</t>
+  </si>
+  <si>
+    <t>Wenn Kunden Pakete nicht innerhalb der Frist von 7 Tagen abholen, werden die Pakete als abgelaufen markiert. Klicken Sie bitte auf die entsprechende Meldung auf der Startseite, um Pakete für eine Abholung anzumelden. Bitte scannen Sie alle Pakete nach der Meldung innerhalb von 2 Stunden ein. Die App wird andernfalls alle Funktionalitäten bis zum Scan blockieren. Kommt ein Fahrer zur Abholung, müssen Sie lediglich die Pakete aushändigen.</t>
+  </si>
+  <si>
+    <t>Si les clients ne récupèrent pas leur colis dans les 7 jours, le colis expire. Une notification apparaîtra sur l’écran principal, vous permettant de demander l’enlèvement par un livreur. Autrement, l'application vous empêchera d'effectuer d'autres tâches. Un livreur se rendra dans votre magasin pour récupérer les colis. Vous n'avez pas besoin de scanner les colis à l'arrivée du livreur - il suffit de les lui remettre.</t>
+  </si>
+  <si>
+    <t>Se i clienti non ritirano i pacchi entro 7 giorni, i pacchi sono considerati scaduti o abbandonati. Quando ti viene richiesta la scansione dei pacchi abbandonati, devi eseguirla, altrimenti la App non ti permetterà altre azioni. Il corriere arriverà al tuo punto vendita per ritirare i pacchi scaduti entro pochi giorni. Quando arriva il corriere, non devi fare nuovamente la scansione dei pacchi, devi solo consegnarglieli</t>
+  </si>
+  <si>
+    <t>Müşteriler, paketlerini 7 gün içinde teslim almazlarsa, paketin süresi dolar. O zaman kuryenin teslim alınmasını istemeniz gerekir. Kuryenin teslim alması için paketleri taramanız gerekir. Aksi takdirde, Uygulama sizi diğer görevlerden alıkoyacaktır. Teslimat şoförü, kargoları almak için mağazanıza varacaktır. Kurye vardığında kuryenin size ileteceği R ile başlayan kodu Kuryeye İade menüsü üzerinden girmeniz ve paketleri sürücüye vermeniz yeterlidir.</t>
+  </si>
+  <si>
+    <t>Quando i pacchi superano il periodo massimo di giacenza di 7 giorni, viene visualizzata una notifica</t>
+  </si>
+  <si>
+    <t>Süresi dolan paketleri (müşterinin 7 gün içerisinde teslim almadığı paketler) taramak için hatırlatıcıya dokunun.</t>
+  </si>
+  <si>
+    <t>J'ai oublié mon identifiant et mon mot de passe, que dois-je faire ?</t>
+  </si>
+  <si>
+    <t>J’ai oublié mon identifiant et mon mot de passe, que dois-je faire ? Veuillez contacter votre correspondant dédié au programme Amazon Hub Counter</t>
+  </si>
+  <si>
+    <t>Veuillez prendre contact avec la personne avec laquelle vous êtes en relation concernant le programme Amazon Hub Counter.</t>
+  </si>
+  <si>
+    <t>Los paquetes caducarán después de 7 días; espere un par de días para que el conductor los recoja. Póngase en contacto con el soporte de Amazon, haga clic en "?" (Arriba a la derecha), desplácese hacia abajo al final de la página de ayuda si un paquete no se recoge en 3 días</t>
+  </si>
+  <si>
+    <t>Les colis expirent au bout de 7 jours. Veuillez prévoir quelques jours pour que le transporteur vienne les chercher. Veuillez contacter le service d'assistance d'Amazon en cliquant sur le " ?" (en haut à droite), en faisant défiler la page vers le bas, si un colis n'est pas enlevé dans les 3 jours.</t>
+  </si>
+  <si>
+    <t>I pacchi scadono dopo 7 giorni. Considera inoltre un paio di giorni necessari al ritiro da parte del corriere. Contatta il supporto Amazon, premendo "?" (in alto a destra), e richiedendo supporto in fondo alla pagina di aiuto se i pacchi non sono ritirati entro 3 giorni</t>
+  </si>
+  <si>
+    <t>Paketler 7 gün sonra sona erecek, lütfen kuryenin teslim alması için birkaç gün bekleyin. Lütfen Amazon destek ile iletişime geçin, "?" (Sağ üstte) üzerine tıklayarak, bir paket 3 gün içinde teslim alınmazsa yardım sayfasının sonunda aşağı kaydırın</t>
+  </si>
+  <si>
+    <t>Was ist zu tun, wenn ich eine Paketabholung nach 7 Tagen beantragt habe, aber der Kunde in der Zwischenzeit das Paket abholt?</t>
   </si>
 </sst>
 </file>
@@ -1877,18 +1883,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBFBEA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1924,16 +1924,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2276,31 +2276,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q96"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.125" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -2315,7 +2318,7 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>265</v>
@@ -2333,7 +2336,7 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
     </row>
-    <row r="2" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2356,13 +2359,13 @@
         <v>216</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>268</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>513</v>
+        <v>500</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>216</v>
@@ -2374,7 +2377,7 @@
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2397,13 +2400,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>6</v>
@@ -2415,39 +2418,39 @@
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" ht="312.60000000000002" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>606</v>
+        <v>586</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>605</v>
+        <v>585</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>607</v>
+        <v>587</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>269</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>609</v>
+        <v>589</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -2456,7 +2459,7 @@
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>218</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>270</v>
@@ -2497,9 +2500,9 @@
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -2517,10 +2520,10 @@
         <v>13</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>272</v>
@@ -2538,7 +2541,7 @@
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
     </row>
-    <row r="7" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -2561,7 +2564,7 @@
         <v>17</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>274</v>
@@ -2579,7 +2582,7 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row r="8" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2602,7 +2605,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>276</v>
@@ -2620,7 +2623,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>22</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>278</v>
@@ -2661,9 +2664,9 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row r="10" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>26</v>
@@ -2684,10 +2687,10 @@
         <v>28</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>280</v>
@@ -2702,9 +2705,9 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row r="11" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2725,7 +2728,7 @@
         <v>31</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>281</v>
@@ -2743,9 +2746,9 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>32</v>
@@ -2766,10 +2769,10 @@
         <v>32</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>283</v>
@@ -2784,18 +2787,18 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row r="13" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>221</v>
@@ -2804,10 +2807,10 @@
         <v>221</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>284</v>
@@ -2816,7 +2819,7 @@
         <v>285</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -2825,7 +2828,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row r="14" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>222</v>
       </c>
@@ -2848,7 +2851,7 @@
         <v>225</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>286</v>
@@ -2866,18 +2869,18 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="15" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>227</v>
@@ -2889,7 +2892,7 @@
         <v>228</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>288</v>
@@ -2898,7 +2901,7 @@
         <v>289</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
@@ -2907,18 +2910,18 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row r="16" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>230</v>
@@ -2930,7 +2933,7 @@
         <v>231</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>290</v>
@@ -2939,7 +2942,7 @@
         <v>291</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -2948,7 +2951,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row r="17" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -2968,10 +2971,10 @@
         <v>13</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>272</v>
@@ -2989,7 +2992,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="18" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3012,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>274</v>
@@ -3030,39 +3033,39 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row r="19" spans="1:17" ht="328.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>232</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>232</v>
+        <v>292</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>590</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>520</v>
+        <v>591</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>390</v>
+        <v>592</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>482</v>
+        <v>593</v>
       </c>
       <c r="J19" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
@@ -3071,18 +3074,18 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row r="20" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>39</v>
@@ -3091,19 +3094,19 @@
         <v>39</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="K20" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -3112,7 +3115,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row r="21" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -3132,16 +3135,16 @@
         <v>41</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>296</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>297</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>233</v>
@@ -3153,7 +3156,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row r="22" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -3173,16 +3176,16 @@
         <v>235</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>234</v>
@@ -3194,18 +3197,18 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row r="23" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="300" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>236</v>
@@ -3217,16 +3220,16 @@
         <v>237</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>484</v>
+        <v>473</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -3235,7 +3238,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row r="24" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>44</v>
       </c>
@@ -3255,16 +3258,16 @@
         <v>46</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>45</v>
@@ -3276,7 +3279,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row r="25" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
@@ -3296,16 +3299,16 @@
         <v>239</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>486</v>
+        <v>475</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>238</v>
@@ -3317,7 +3320,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row r="26" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
@@ -3337,16 +3340,16 @@
         <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>49</v>
@@ -3358,7 +3361,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row r="27" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>51</v>
       </c>
@@ -3381,13 +3384,13 @@
         <v>54</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>52</v>
@@ -3399,7 +3402,7 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row r="28" spans="1:17" ht="219" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>55</v>
       </c>
@@ -3422,16 +3425,16 @@
         <v>58</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>488</v>
+        <v>477</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
@@ -3440,7 +3443,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row r="29" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>59</v>
       </c>
@@ -3460,16 +3463,16 @@
         <v>61</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K29" s="1" t="s">
         <v>60</v>
@@ -3481,18 +3484,18 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row r="30" spans="1:17" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>240</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>241</v>
@@ -3501,19 +3504,19 @@
         <v>241</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -3522,18 +3525,18 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row r="31" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>243</v>
@@ -3545,16 +3548,16 @@
         <v>244</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>490</v>
+        <v>479</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
@@ -3563,59 +3566,59 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row r="32" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+    <row r="32" spans="1:17" s="5" customFormat="1" ht="237" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>534</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="B32" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="G32" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" ht="234.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H32" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>522</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="1:17" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>248</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>63</v>
@@ -3624,19 +3627,19 @@
         <v>63</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>491</v>
+        <v>480</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
@@ -3645,18 +3648,18 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row r="34" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>249</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>250</v>
@@ -3665,19 +3668,19 @@
         <v>250</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
@@ -3686,39 +3689,39 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row r="35" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>492</v>
+      <c r="B35" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>602</v>
-      </c>
-      <c r="I35" s="4" t="s">
-        <v>601</v>
-      </c>
-      <c r="J35" s="5" t="s">
-        <v>603</v>
-      </c>
-      <c r="K35" s="5" t="s">
-        <v>604</v>
+        <v>482</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>584</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -3727,7 +3730,7 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row r="36" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>65</v>
       </c>
@@ -3750,13 +3753,13 @@
         <v>21</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>276</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="K36" s="1" t="s">
         <v>66</v>
@@ -3768,18 +3771,18 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row r="37" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="394.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>252</v>
@@ -3788,19 +3791,19 @@
         <v>252</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -3809,18 +3812,18 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>39</v>
@@ -3829,19 +3832,19 @@
         <v>39</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -3850,7 +3853,7 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row r="39" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>69</v>
       </c>
@@ -3873,13 +3876,13 @@
         <v>72</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="J39" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>70</v>
@@ -3891,7 +3894,7 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row r="40" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
@@ -3911,16 +3914,16 @@
         <v>75</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>74</v>
@@ -3932,7 +3935,7 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row r="41" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>76</v>
       </c>
@@ -3955,13 +3958,13 @@
         <v>79</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>77</v>
@@ -3973,7 +3976,7 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row r="42" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -3996,13 +3999,13 @@
         <v>83</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="I42" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="J42" s="1" t="s">
         <v>318</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>319</v>
       </c>
       <c r="K42" s="1" t="s">
         <v>81</v>
@@ -4014,7 +4017,7 @@
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
     </row>
-    <row r="43" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -4034,16 +4037,16 @@
         <v>86</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="I43" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="K43" s="1" t="s">
         <v>85</v>
@@ -4055,7 +4058,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -4075,16 +4078,16 @@
         <v>61</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>489</v>
+        <v>478</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K44" s="1" t="s">
         <v>60</v>
@@ -4096,7 +4099,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>253</v>
       </c>
@@ -4119,13 +4122,13 @@
         <v>72</v>
       </c>
       <c r="H45" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="I45" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>415</v>
-      </c>
       <c r="J45" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>88</v>
@@ -4137,7 +4140,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row r="46" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>254</v>
       </c>
@@ -4157,16 +4160,16 @@
         <v>89</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="I46" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>323</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>255</v>
@@ -4178,7 +4181,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row r="47" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>256</v>
       </c>
@@ -4198,16 +4201,16 @@
         <v>90</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>257</v>
@@ -4219,7 +4222,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row r="48" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>258</v>
       </c>
@@ -4242,13 +4245,13 @@
         <v>244</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="I48" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J48" s="1" t="s">
         <v>326</v>
-      </c>
-      <c r="J48" s="1" t="s">
-        <v>327</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>259</v>
@@ -4260,7 +4263,7 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row r="49" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>260</v>
       </c>
@@ -4280,16 +4283,16 @@
         <v>93</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>92</v>
@@ -4301,18 +4304,18 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row r="50" spans="1:17" ht="297" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="268.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>261</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>250</v>
@@ -4324,16 +4327,16 @@
         <v>251</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -4342,7 +4345,7 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row r="51" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>94</v>
       </c>
@@ -4362,16 +4365,16 @@
         <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>498</v>
+        <v>487</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K51" s="1" t="s">
         <v>95</v>
@@ -4383,7 +4386,7 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row r="52" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -4406,13 +4409,13 @@
         <v>100</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="K52" s="1" t="s">
         <v>98</v>
@@ -4424,7 +4427,7 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row r="53" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>101</v>
       </c>
@@ -4447,13 +4450,13 @@
         <v>104</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="K53" s="1" t="s">
         <v>102</v>
@@ -4465,7 +4468,7 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row r="54" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>105</v>
       </c>
@@ -4485,16 +4488,16 @@
         <v>107</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="K54" s="1" t="s">
         <v>106</v>
@@ -4506,35 +4509,39 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row r="55" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="3" t="s">
-        <v>492</v>
+      <c r="B55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
@@ -4543,7 +4550,7 @@
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
     </row>
-    <row r="56" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>108</v>
       </c>
@@ -4566,7 +4573,7 @@
         <v>25</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>278</v>
@@ -4584,39 +4591,39 @@
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
     </row>
-    <row r="57" spans="1:17" ht="390.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="363" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>554</v>
+        <v>596</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>262</v>
+        <v>597</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>427</v>
+        <v>599</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>499</v>
+        <v>600</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>333</v>
+        <v>601</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
@@ -4625,18 +4632,18 @@
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
     </row>
-    <row r="58" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>39</v>
@@ -4645,19 +4652,19 @@
         <v>39</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="I58" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="J58" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="J58" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="K58" s="1" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
@@ -4666,7 +4673,7 @@
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
     </row>
-    <row r="59" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>113</v>
       </c>
@@ -4689,13 +4696,13 @@
         <v>116</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>429</v>
+        <v>602</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>114</v>
@@ -4707,7 +4714,7 @@
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
     </row>
-    <row r="60" spans="1:17" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" ht="205.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>117</v>
       </c>
@@ -4727,16 +4734,16 @@
         <v>119</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>118</v>
@@ -4748,18 +4755,18 @@
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
     </row>
-    <row r="61" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="142.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="E61" s="1" t="s">
         <v>121</v>
@@ -4768,19 +4775,19 @@
         <v>121</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
@@ -4789,7 +4796,7 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
     </row>
-    <row r="62" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>122</v>
       </c>
@@ -4812,13 +4819,13 @@
         <v>125</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>123</v>
@@ -4830,18 +4837,18 @@
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
     </row>
-    <row r="63" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>127</v>
@@ -4850,19 +4857,19 @@
         <v>127</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>338</v>
+        <v>603</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
@@ -4871,7 +4878,7 @@
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
     </row>
-    <row r="64" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>128</v>
       </c>
@@ -4891,16 +4898,16 @@
         <v>130</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>129</v>
@@ -4912,18 +4919,18 @@
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
     </row>
-    <row r="65" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>132</v>
@@ -4932,19 +4939,19 @@
         <v>132</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
@@ -4953,7 +4960,7 @@
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
     </row>
-    <row r="66" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>133</v>
       </c>
@@ -4973,16 +4980,16 @@
         <v>135</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="K66" s="1" t="s">
         <v>134</v>
@@ -4994,39 +5001,39 @@
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
     </row>
-    <row r="67" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>492</v>
+      <c r="B67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>493</v>
+        <v>482</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>492</v>
+        <v>482</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>481</v>
       </c>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
@@ -5035,7 +5042,7 @@
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
     </row>
-    <row r="68" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>136</v>
       </c>
@@ -5058,13 +5065,13 @@
         <v>28</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>26</v>
@@ -5076,18 +5083,18 @@
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
     </row>
-    <row r="69" spans="1:17" ht="203.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="189.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>138</v>
@@ -5096,19 +5103,19 @@
         <v>138</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="K69" s="1" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
@@ -5117,7 +5124,7 @@
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
     </row>
-    <row r="70" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -5137,16 +5144,16 @@
         <v>141</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K70" s="1" t="s">
         <v>140</v>
@@ -5158,18 +5165,18 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
     </row>
-    <row r="71" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>143</v>
@@ -5178,19 +5185,19 @@
         <v>143</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -5199,7 +5206,7 @@
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
     </row>
-    <row r="72" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>144</v>
       </c>
@@ -5219,16 +5226,16 @@
         <v>146</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="K72" s="1" t="s">
         <v>145</v>
@@ -5240,12 +5247,12 @@
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
     </row>
-    <row r="73" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>599</v>
+        <v>582</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>263</v>
@@ -5260,16 +5267,16 @@
         <v>264</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K73" s="1" t="s">
         <v>263</v>
@@ -5281,7 +5288,7 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
     </row>
-    <row r="74" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>148</v>
       </c>
@@ -5301,16 +5308,16 @@
         <v>150</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="K74" s="1" t="s">
         <v>149</v>
@@ -5322,7 +5329,7 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
     </row>
-    <row r="75" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>151</v>
       </c>
@@ -5345,13 +5352,13 @@
         <v>31</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="K75" s="1" t="s">
         <v>152</v>
@@ -5363,18 +5370,18 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
     </row>
-    <row r="76" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>155</v>
@@ -5383,19 +5390,19 @@
         <v>155</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="K76" s="1" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
@@ -5404,7 +5411,7 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
     </row>
-    <row r="77" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>156</v>
       </c>
@@ -5424,16 +5431,16 @@
         <v>158</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="K77" s="1" t="s">
         <v>157</v>
@@ -5445,18 +5452,18 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
     </row>
-    <row r="78" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>160</v>
@@ -5465,19 +5472,19 @@
         <v>160</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K78" s="1" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
@@ -5486,18 +5493,18 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
     </row>
-    <row r="79" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>162</v>
@@ -5506,19 +5513,19 @@
         <v>162</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="K79" s="1" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
@@ -5527,7 +5534,7 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="1"/>
     </row>
-    <row r="80" spans="1:17" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>163</v>
       </c>
@@ -5550,13 +5557,13 @@
         <v>166</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K80" s="1" t="s">
         <v>164</v>
@@ -5568,7 +5575,7 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="1"/>
     </row>
-    <row r="81" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>167</v>
       </c>
@@ -5591,13 +5598,13 @@
         <v>170</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>458</v>
+        <v>604</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K81" s="1" t="s">
         <v>168</v>
@@ -5609,39 +5616,39 @@
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
     </row>
-    <row r="82" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
@@ -5650,7 +5657,7 @@
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
     </row>
-    <row r="83" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>172</v>
       </c>
@@ -5673,13 +5680,13 @@
         <v>175</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="K83" s="1" t="s">
         <v>173</v>
@@ -5691,7 +5698,7 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
     </row>
-    <row r="84" spans="1:17" ht="172.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" ht="174" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>176</v>
       </c>
@@ -5711,16 +5718,16 @@
         <v>178</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>177</v>
@@ -5732,7 +5739,7 @@
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
     </row>
-    <row r="85" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>179</v>
       </c>
@@ -5755,13 +5762,13 @@
         <v>182</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="K85" s="1" t="s">
         <v>180</v>
@@ -5773,7 +5780,7 @@
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
     </row>
-    <row r="86" spans="1:17" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>183</v>
       </c>
@@ -5796,13 +5803,13 @@
         <v>186</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="K86" s="1" t="s">
         <v>184</v>
@@ -5814,7 +5821,7 @@
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
     </row>
-    <row r="87" spans="1:17" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>187</v>
       </c>
@@ -5837,13 +5844,13 @@
         <v>190</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K87" s="1" t="s">
         <v>188</v>
@@ -5855,7 +5862,7 @@
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
     </row>
-    <row r="88" spans="1:17" ht="406.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" ht="394.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>191</v>
       </c>
@@ -5875,16 +5882,16 @@
         <v>193</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>600</v>
+        <v>583</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>192</v>
@@ -5896,7 +5903,7 @@
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
     </row>
-    <row r="89" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>194</v>
       </c>
@@ -5919,13 +5926,13 @@
         <v>197</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K89" s="1" t="s">
         <v>195</v>
@@ -5937,39 +5944,39 @@
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
     </row>
-    <row r="90" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
@@ -5978,7 +5985,7 @@
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
     </row>
-    <row r="91" spans="1:17" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="48" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>199</v>
       </c>
@@ -6001,13 +6008,13 @@
         <v>202</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="K91" s="1" t="s">
         <v>200</v>
@@ -6019,39 +6026,39 @@
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
     </row>
-    <row r="92" spans="1:17" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>584</v>
+        <v>606</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
       <c r="K92" s="1" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
@@ -6060,7 +6067,7 @@
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
     </row>
-    <row r="93" spans="1:17" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>204</v>
       </c>
@@ -6083,13 +6090,13 @@
         <v>207</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="K93" s="1" t="s">
         <v>205</v>
@@ -6101,39 +6108,39 @@
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
     </row>
-    <row r="94" spans="1:17" ht="250.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" ht="237" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>209</v>
+        <v>607</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>209</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>471</v>
+        <v>608</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>510</v>
+        <v>609</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>369</v>
+        <v>610</v>
       </c>
       <c r="K94" s="1" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
@@ -6142,7 +6149,7 @@
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
     </row>
-    <row r="95" spans="1:17" ht="141" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" ht="126.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>210</v>
       </c>
@@ -6162,16 +6169,16 @@
         <v>212</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>511</v>
+        <v>498</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="K95" s="1" t="s">
         <v>211</v>
@@ -6183,18 +6190,18 @@
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
     </row>
-    <row r="96" spans="1:17" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" ht="111" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>214</v>
@@ -6203,19 +6210,19 @@
         <v>214</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>595</v>
+        <v>578</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>594</v>
+        <v>577</v>
       </c>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
@@ -6226,30 +6233,33 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G35" r:id="rId2" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="D55" r:id="rId3" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G55" r:id="rId4" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H55" r:id="rId5" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I55" r:id="rId6" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J55" r:id="rId7" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K55" r:id="rId8" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B67" r:id="rId9" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="C67" r:id="rId10" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="D67" r:id="rId11" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G67" r:id="rId12" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H67" r:id="rId13" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I67" r:id="rId14" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J67" r:id="rId15" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K67" r:id="rId16" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B35:C35" r:id="rId17" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I35" r:id="rId18" display="https://invis.io/Z2110U41EDUW"/>
-    <hyperlink ref="H35" r:id="rId19" display="https://invis.io/ZT110U3UU3EJ"/>
-    <hyperlink ref="J35" r:id="rId20" display="https://invis.io/WN110TY5GK39"/>
-    <hyperlink ref="K35" r:id="rId21" display="https://invis.io/U91141V86CGD"/>
+    <hyperlink ref="K55" r:id="rId1" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="K67" r:id="rId2" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="K35" r:id="rId3" display="https://invis.io/U91141V86CGD"/>
+    <hyperlink ref="D35" r:id="rId4" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="G35" r:id="rId5" display="https://invis.io/BG10Z5M4C8K9"/>
+    <hyperlink ref="H35" r:id="rId6" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I35" r:id="rId7" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="J35" r:id="rId8" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="D55" r:id="rId9" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="G55" r:id="rId10" display="https://invis.io/BG10Z5M4C8K9"/>
+    <hyperlink ref="H55" r:id="rId11" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I55" r:id="rId12" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="J55" r:id="rId13" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="B67" r:id="rId14" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="C67" r:id="rId15" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="D67" r:id="rId16" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="G67" r:id="rId17" display="https://invis.io/BG10Z5M4C8K9"/>
+    <hyperlink ref="H67" r:id="rId18" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="I67" r:id="rId19" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="J67" r:id="rId20" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="B35" r:id="rId21" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="C35" r:id="rId22" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="B55" r:id="rId23" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="C55" r:id="rId24" display="http://invis.io/W310O7P5JTXV"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/translations/in-store/csvContent.xlsx
+++ b/translations/in-store/csvContent.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20387"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ceref\Documents\GitHub\amazon-hub-support\translations\in-store\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC3782E7-D4FD-4D18-B316-1561F276AA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8085" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="8085" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="material" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1056" uniqueCount="614">
   <si>
     <t>Tags</t>
   </si>
@@ -1860,12 +1861,18 @@
   </si>
   <si>
     <t>Was ist zu tun, wenn ich eine Paketabholung nach 7 Tagen beantragt habe, aber der Kunde in der Zwischenzeit das Paket abholt?</t>
+  </si>
+  <si>
+    <t>Recolección del cliente</t>
+  </si>
+  <si>
+    <t>Recolección del conductor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2273,12 +2280,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q96"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B104" sqref="B104"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2287,7 +2294,8 @@
     <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="21.75" customWidth="1"/>
     <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.375" customWidth="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.75" bestFit="1" customWidth="1"/>
@@ -2596,7 +2604,7 @@
         <v>19</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>20</v>
@@ -2637,7 +2645,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>24</v>
+        <v>613</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -3744,7 +3752,7 @@
         <v>66</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>20</v>
+        <v>612</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>20</v>
@@ -4564,7 +4572,7 @@
         <v>109</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>110</v>
+        <v>613</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>110</v>
@@ -6233,30 +6241,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K55" r:id="rId1" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K67" r:id="rId2" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="K35" r:id="rId3" display="https://invis.io/U91141V86CGD"/>
-    <hyperlink ref="D35" r:id="rId4" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G35" r:id="rId5" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H35" r:id="rId6" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I35" r:id="rId7" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J35" r:id="rId8" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="D55" r:id="rId9" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G55" r:id="rId10" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H55" r:id="rId11" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I55" r:id="rId12" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J55" r:id="rId13" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B67" r:id="rId14" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="C67" r:id="rId15" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="D67" r:id="rId16" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="G67" r:id="rId17" display="https://invis.io/BG10Z5M4C8K9"/>
-    <hyperlink ref="H67" r:id="rId18" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="I67" r:id="rId19" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="J67" r:id="rId20" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B35" r:id="rId21" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="C35" r:id="rId22" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="B55" r:id="rId23" display="http://invis.io/W310O7P5JTXV"/>
-    <hyperlink ref="C55" r:id="rId24" display="http://invis.io/W310O7P5JTXV"/>
+    <hyperlink ref="K55" r:id="rId1" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K67" r:id="rId2" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="K35" r:id="rId3" display="https://invis.io/U91141V86CGD" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D35" r:id="rId4" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G35" r:id="rId5" display="https://invis.io/BG10Z5M4C8K9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H35" r:id="rId6" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I35" r:id="rId7" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="J35" r:id="rId8" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D55" r:id="rId9" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="G55" r:id="rId10" display="https://invis.io/BG10Z5M4C8K9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="H55" r:id="rId11" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I55" r:id="rId12" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J55" r:id="rId13" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B67" r:id="rId14" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C67" r:id="rId15" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D67" r:id="rId16" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G67" r:id="rId17" display="https://invis.io/BG10Z5M4C8K9" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="H67" r:id="rId18" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I67" r:id="rId19" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="J67" r:id="rId20" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B35" r:id="rId21" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C35" r:id="rId22" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B55" r:id="rId23" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C55" r:id="rId24" display="http://invis.io/W310O7P5JTXV" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId25"/>
